--- a/02-16-25 to 02-22-25 Milwaukee Schedule.xlsx
+++ b/02-16-25 to 02-22-25 Milwaukee Schedule.xlsx
@@ -3022,7 +3022,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -3065,7 +3065,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -3108,7 +3108,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -3155,13 +3155,12 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T50" t="inlineStr"/>
@@ -3203,12 +3202,13 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="T51" t="inlineStr"/>

--- a/02-16-25 to 02-22-25 Milwaukee Schedule.xlsx
+++ b/02-16-25 to 02-22-25 Milwaukee Schedule.xlsx
@@ -1564,7 +1564,11 @@
           <t>Paul</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr"/>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
     </row>
@@ -1980,7 +1984,11 @@
           <t>Paul</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr"/>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>

--- a/02-16-25 to 02-22-25 Milwaukee Schedule.xlsx
+++ b/02-16-25 to 02-22-25 Milwaukee Schedule.xlsx
@@ -2080,10 +2080,14 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
@@ -2131,7 +2135,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2178,7 +2182,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2229,7 +2233,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2284,7 +2288,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2339,7 +2343,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2390,7 +2394,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2453,7 +2457,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2512,7 +2516,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2575,7 +2579,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2655,21 +2659,9 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
@@ -2722,21 +2714,9 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>

--- a/02-16-25 to 02-22-25 Milwaukee Schedule.xlsx
+++ b/02-16-25 to 02-22-25 Milwaukee Schedule.xlsx
@@ -536,24 +536,64 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bag 1, SB 11</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bags 1-4</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bags 1-4</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
@@ -567,20 +607,52 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bag 9, SB 10</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Bag 1, SB 11</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Bag 9, SB 10</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Bag 1, SB 11</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
     </row>
@@ -598,8 +670,16 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Bag 9, SB 10</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>

--- a/02-16-25 to 02-22-25 Milwaukee Schedule.xlsx
+++ b/02-16-25 to 02-22-25 Milwaukee Schedule.xlsx
@@ -2105,10 +2105,14 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
@@ -2160,7 +2164,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2215,7 +2219,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2262,7 +2266,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2313,7 +2317,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2368,7 +2372,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2423,7 +2427,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2474,7 +2478,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2537,7 +2541,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2589,21 +2593,9 @@
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -2652,21 +2644,9 @@
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>

--- a/02-16-25 to 02-22-25 Milwaukee Schedule.xlsx
+++ b/02-16-25 to 02-22-25 Milwaukee Schedule.xlsx
@@ -1434,8 +1434,8 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>@ Store,
+Until 11:15</t>
         </is>
       </c>
       <c r="X20" t="inlineStr"/>

--- a/02-16-25 to 02-22-25 Milwaukee Schedule.xlsx
+++ b/02-16-25 to 02-22-25 Milwaukee Schedule.xlsx
@@ -1404,7 +1404,11 @@
           <t>Cynthia</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
